--- a/Tools/Config2.xlsx
+++ b/Tools/Config2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>[1000,1002,1003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,7 +526,7 @@
     <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +539,14 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -529,8 +559,14 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -543,8 +579,14 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -557,8 +599,14 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -571,8 +619,14 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -584,6 +638,12 @@
       </c>
       <c r="D6" t="s">
         <v>15</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
